--- a/output_data/charts/capacity-PickawayCounty-0500000US39129.xlsx
+++ b/output_data/charts/capacity-PickawayCounty-0500000US39129.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -510,13 +510,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7680</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4800</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -692,7 +692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15036000</c:v>
+                  <c:v>15036</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -865,10 +865,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4800</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -877,31 +877,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12300</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47100</c:v>
+                  <c:v>47.09999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31040</c:v>
+                  <c:v>31.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76445</c:v>
+                  <c:v>76.44499999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94650</c:v>
+                  <c:v>94.65000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>136770</c:v>
+                  <c:v>136.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82646</c:v>
+                  <c:v>82.646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>14000</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>15036000</v>
+        <v>15036</v>
       </c>
       <c r="E20" s="2">
-        <v>12300</v>
+        <v>12.3</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>47100</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>31040</v>
+        <v>31.04</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>7680</v>
+        <v>7.68</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>76445</v>
+        <v>76.44499999999999</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>94650</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>136770</v>
+        <v>136.77</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>82646</v>
+        <v>82.646</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-PickawayCounty-0500000US39129.xlsx
+++ b/output_data/charts/capacity-PickawayCounty-0500000US39129.xlsx
@@ -901,7 +901,7 @@
                   <c:v>136.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82.646</c:v>
+                  <c:v>96.24600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>82.646</v>
+        <v>96.24600000000001</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
